--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>classifier</t>
   </si>
@@ -122,26 +122,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AT natural error</t>
-  </si>
-  <si>
-    <t>normal natural error</t>
-  </si>
-  <si>
     <t>minmaxAT(CIASA)</t>
   </si>
   <si>
     <t>ntu60</t>
+  </si>
+  <si>
+    <t>normal train time (hrs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000000%"/>
-    <numFmt numFmtId="165" formatCode="0.0000000%"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -190,19 +183,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -484,25 +471,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="55.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="55.42578125" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -522,7 +510,7 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -531,16 +519,13 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -550,18 +535,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F2" s="1">
         <v>0.9748</v>
       </c>
-      <c r="G2" s="2">
-        <f>1-E2*F2</f>
-        <v>9.6750320000000056E-2</v>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="1">
         <v>0.92279999999999995</v>
@@ -569,18 +550,14 @@
       <c r="I2" s="1">
         <v>0.88849999999999996</v>
       </c>
-      <c r="J2" s="3">
-        <f>1 - H2*I2</f>
-        <v>0.18009220000000004</v>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -590,18 +567,14 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F3" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G18" si="0">1-E3*F3</f>
-        <v>0.18792776000000011</v>
+      <c r="G3" t="s">
+        <v>6</v>
       </c>
       <c r="H3" s="1">
         <v>0.92279999999999995</v>
@@ -609,18 +582,14 @@
       <c r="I3" s="1">
         <v>0.6946</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J18" si="1">1 - H3*I3</f>
-        <v>0.35902312000000003</v>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -630,18 +599,14 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F4" s="1">
         <v>0.9748</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>9.6750320000000056E-2</v>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="1">
         <v>0.9284</v>
@@ -649,18 +614,14 @@
       <c r="I4" s="1">
         <v>0.2656</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.75341696000000002</v>
+      <c r="J4" t="s">
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -670,18 +631,14 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F5" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18792776000000011</v>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
       <c r="H5" s="1">
         <v>0.9284</v>
@@ -689,110 +646,86 @@
       <c r="I5" s="1">
         <v>0.224</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.79203840000000003</v>
+      <c r="J5" t="s">
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:11" s="2" customFormat="1">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.9748</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.9748</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>9.6750320000000056E-2</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.23300000000000001</v>
       </c>
-      <c r="J6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.78936799999999996</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" ht="12.75">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="12.75">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="5">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18792776000000011</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="5">
         <v>0.12920000000000001</v>
       </c>
-      <c r="J7" s="11">
-        <f t="shared" si="1"/>
-        <v>0.88320319999999997</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F8" s="1">
         <v>0.9748</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>9.6750320000000056E-2</v>
+      <c r="G8" t="s">
+        <v>27</v>
       </c>
       <c r="H8" s="1">
         <v>0.89829999999999999</v>
@@ -800,36 +733,28 @@
       <c r="I8" s="1">
         <v>0.90559999999999996</v>
       </c>
-      <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.18649952000000003</v>
+      <c r="J8" t="s">
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F9" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18792776000000011</v>
+      <c r="G9" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="1">
         <v>0.89829999999999999</v>
@@ -837,26 +762,20 @@
       <c r="I9" s="1">
         <v>0.72919999999999996</v>
       </c>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.34495964000000001</v>
+      <c r="J9" t="s">
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -866,18 +785,14 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
       <c r="E11" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F11" s="1">
         <v>0.9748</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>9.6750320000000056E-2</v>
+      <c r="G11" t="s">
+        <v>6</v>
       </c>
       <c r="H11" s="1">
         <v>0.92279999999999995</v>
@@ -885,18 +800,14 @@
       <c r="I11" s="1">
         <v>0.89039999999999997</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.17833888000000009</v>
+      <c r="J11" t="s">
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -906,18 +817,14 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
       <c r="E12" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F12" s="1">
         <v>0.88319999999999999</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18162688000000005</v>
+      <c r="G12" t="s">
+        <v>6</v>
       </c>
       <c r="H12" s="1">
         <v>0.92279999999999995</v>
@@ -925,18 +832,14 @@
       <c r="I12" s="1">
         <v>0.7026</v>
       </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.35164072000000002</v>
+      <c r="J12" t="s">
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -946,18 +849,14 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
       <c r="E13" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F13" s="1">
         <v>0.9748</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>9.6750320000000056E-2</v>
+      <c r="G13" t="s">
+        <v>17</v>
       </c>
       <c r="H13" s="1">
         <v>0.9284</v>
@@ -965,18 +864,14 @@
       <c r="I13" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.74376160000000002</v>
+      <c r="J13" t="s">
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -986,18 +881,14 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F14" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18792776000000011</v>
+      <c r="G14" t="s">
+        <v>17</v>
       </c>
       <c r="H14" s="1">
         <v>0.9284</v>
@@ -1005,110 +896,86 @@
       <c r="I14" s="1">
         <v>0.224</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.79203840000000003</v>
+      <c r="J14" t="s">
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:11" s="2" customFormat="1">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F15" s="3">
         <v>0.9748</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="0"/>
-        <v>9.6750320000000056E-2</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>0.2417</v>
       </c>
-      <c r="J15" s="7">
-        <f t="shared" si="1"/>
-        <v>0.78150319999999995</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="J15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" ht="12.75">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="12.75">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E16" s="5">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F16" s="5">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>0.18792776000000011</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="5">
         <v>0.12920000000000001</v>
       </c>
-      <c r="J16" s="11">
-        <f t="shared" si="1"/>
-        <v>0.88320319999999997</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="K16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="1:11">
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F17" s="1">
         <v>0.91120000000000001</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15568208000000006</v>
+      <c r="G17" t="s">
+        <v>27</v>
       </c>
       <c r="H17" s="1">
         <v>0.89829999999999999</v>
@@ -1116,36 +983,28 @@
       <c r="I17" s="1">
         <v>0.90559999999999996</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.18649952000000003</v>
+      <c r="J17" t="s">
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="1:11">
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18" s="1">
         <v>0.92659999999999998</v>
       </c>
       <c r="F18" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18792776000000011</v>
+      <c r="G18" t="s">
+        <v>27</v>
       </c>
       <c r="H18" s="1">
         <v>0.89829999999999999</v>
@@ -1153,23 +1012,40 @@
       <c r="I18" s="1">
         <v>0.73099999999999998</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.3433427</v>
+      <c r="J18" t="s">
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5.73</v>
       </c>
       <c r="E20" s="1">
-        <v>0.76139999999999997</v>
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03AE1F3-9BC0-4CC4-B229-ED3A4529F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
   <si>
     <t>classifier</t>
   </si>
@@ -98,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minmaxAT(SMART)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>normal attack success rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,34 +115,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cp:0.005, attack epoch:1000, normal attack success rate:97.48%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minmaxAT(CIASA)</t>
-  </si>
-  <si>
     <t>ntu60</t>
   </si>
   <si>
     <t>normal train time (hrs)</t>
+  </si>
+  <si>
+    <t>attacker: SMART cp:0.005, attack epoch:1000, normal attack success rate:97.48%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdm06</t>
+  </si>
+  <si>
+    <t>attacker: SMART cp:0.003, attack epoch:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART0.005)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART0.003)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,24 +479,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="55.42578125" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="55.44140625" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -501,13 +510,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -660,6 +669,9 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D6" s="2">
+        <v>137.28</v>
+      </c>
       <c r="E6" s="3">
         <v>0.92659999999999998</v>
       </c>
@@ -667,7 +679,7 @@
         <v>0.9748</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3">
         <v>0.90400000000000003</v>
@@ -679,16 +691,19 @@
         <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="12.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="13.2">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D7" s="4">
+        <v>137.28</v>
+      </c>
       <c r="E7" s="5">
         <v>0.92659999999999998</v>
       </c>
@@ -696,7 +711,7 @@
         <v>0.87639999999999996</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" s="5">
         <v>0.90400000000000003</v>
@@ -708,136 +723,142 @@
         <v>22</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D8" s="2">
+        <v>122.25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.9748</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.9153</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1">
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>122.25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.9153</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.18229999999999999</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.61</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0.61</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.89829999999999999</v>
       </c>
-      <c r="I8" s="1">
-        <v>0.90559999999999996</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I11" s="1">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.72919999999999996</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.9748</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.89039999999999997</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.88319999999999999</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.7026</v>
-      </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -856,19 +877,19 @@
         <v>0.9748</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1">
-        <v>0.9284</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>0.27600000000000002</v>
+        <v>0.89039999999999997</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,166 +906,288 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="F14" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1">
-        <v>0.9284</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>0.224</v>
+        <v>0.7026</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
       </c>
       <c r="K14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E17" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F17" s="3">
         <v>0.9748</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.2417</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="3">
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="13.2">
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="5">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I15" s="3">
-        <v>0.2417</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="I18" s="5">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.9748</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.9153</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="B16" s="4" t="s">
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1">
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.9153</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0.12920000000000001</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J22" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.91120000000000001</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="K22" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.90559999999999996</v>
-      </c>
-      <c r="J17" t="s">
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5.73</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.87639999999999996</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>5.73</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.85150000000000003</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="K24" t="s">
         <v>19</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>classifier</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,7 +1035,9 @@
       <c r="E20" s="1">
         <v>0.85150000000000003</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>0.99819999999999998</v>
+      </c>
       <c r="G20" t="s">
         <v>6</v>
       </c>
@@ -1045,6 +1047,32 @@
         <v>23</v>
       </c>
       <c r="K20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>5.73</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
         <v>19</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
   <si>
     <t>classifier</t>
   </si>
@@ -471,26 +471,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="55.42578125" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="55.42578125" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,19 +514,22 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -544,20 +548,20 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.92279999999999995</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.88849999999999996</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -576,20 +580,20 @@
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.92279999999999995</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.6946</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -608,20 +612,20 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.9284</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.2656</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -640,20 +644,20 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.9284</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.224</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1">
+    <row r="6" spans="1:12" s="2" customFormat="1">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -669,20 +673,20 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>0.23300000000000001</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="12.75">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -698,20 +702,20 @@
       <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>0.12920000000000001</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -727,20 +731,20 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.89829999999999999</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.90559999999999996</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -756,26 +760,26 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.89829999999999999</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.72919999999999996</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -794,20 +798,20 @@
       <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.92279999999999995</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.89039999999999997</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -826,20 +830,20 @@
       <c r="G12" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0.92279999999999995</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0.7026</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -858,20 +862,20 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.9284</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.27600000000000002</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -890,20 +894,20 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.9284</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.224</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1">
+    <row r="15" spans="1:12" s="2" customFormat="1">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -919,20 +923,20 @@
       <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>0.2417</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="12.75">
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="12.75">
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
@@ -948,20 +952,20 @@
       <c r="G16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>0.12920000000000001</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -977,20 +981,20 @@
       <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>0.89829999999999999</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>0.90559999999999996</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1006,20 +1010,20 @@
       <c r="G18" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>0.89829999999999999</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>0.73099999999999998</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>22</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1041,16 +1045,16 @@
       <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1067,12 +1071,12 @@
         <v>0.85150000000000003</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>19</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
   <si>
     <t>classifier</t>
   </si>
@@ -474,7 +475,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1070,7 +1071,12 @@
       <c r="E21" s="1">
         <v>0.85150000000000003</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" t="s">

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335DDB80-F6A1-4782-809F-112D52207A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>classifier</t>
   </si>
@@ -130,23 +130,31 @@
   </si>
   <si>
     <t>normal train time (hrs)</t>
+  </si>
+  <si>
+    <t>SGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntu60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -471,25 +479,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="55.42578125" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="55.44140625" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -687,7 +695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="13.2">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -937,7 +945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="12.75">
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="13.2">
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1084,6 +1092,17 @@
       </c>
       <c r="L21" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.879</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1038,10 +1038,10 @@
         <v>5.73</v>
       </c>
       <c r="E20" s="1">
-        <v>0.85150000000000003</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="F20" s="1">
-        <v>0.99819999999999998</v>
+        <v>0.98909999999999998</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
@@ -1069,7 +1069,7 @@
         <v>5.73</v>
       </c>
       <c r="E21" s="1">
-        <v>0.85150000000000003</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="F21" s="1">
         <v>0.99739999999999995</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t>classifier</t>
   </si>
@@ -130,13 +130,31 @@
   </si>
   <si>
     <t>normal train time (hrs)</t>
+  </si>
+  <si>
+    <t>CTRGCN</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, learingRate 0.001</t>
+  </si>
+  <si>
+    <t>classifier parameters</t>
+  </si>
+  <si>
+    <t>ep 200 cn 65 bs 128 optimiser Adam</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.1, clfWeight:1, xTildeWeight:0.05</t>
+  </si>
+  <si>
+    <t>ep 80 cn 65 bs 32 optimiser Adam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +175,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +195,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,22 +209,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -488,11 +534,11 @@
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="55.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,8 +575,11 @@
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -562,7 +611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -594,7 +643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -626,7 +675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -658,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="12.75">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -687,36 +736,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="12.75">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="12.75">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>0.12920000000000001</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -745,7 +794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -774,13 +823,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -812,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -844,7 +893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -876,7 +925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -908,7 +957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="12.75">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -937,36 +986,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="12.75">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="12.75">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="5">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F16" s="3">
         <v>0.87639999999999996</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>0.90400000000000003</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>0.12920000000000001</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -995,7 +1044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1024,66 +1073,179 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>5.73</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.98909999999999998</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    <row r="19" spans="1:13" s="4" customFormat="1"/>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>5.73</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.99739999999999995</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>0.91900000000000004</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" t="s">
         <v>23</v>
       </c>
       <c r="L21" t="s">
         <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5.73</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>5.73</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>6.05</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>6.05</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE4157A-AF19-415D-B018-E71BEF3E7205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="42">
   <si>
     <t>classifier</t>
   </si>
@@ -148,23 +148,35 @@
   </si>
   <si>
     <t>ep 80 cn 65 bs 32 optimiser Adam</t>
+  </si>
+  <si>
+    <t>SGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BayesianEMBATrainer(clfAcc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -178,7 +190,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,25 +529,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -707,7 +719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="12.75">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="13.2">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -736,7 +748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="12.75">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="13.2">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
@@ -824,42 +836,45 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.1719</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.9748</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.89039999999999997</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
@@ -875,7 +890,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="F12" s="1">
-        <v>0.88319999999999999</v>
+        <v>0.9748</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -884,10 +899,10 @@
         <v>0.92279999999999995</v>
       </c>
       <c r="J12" s="1">
-        <v>0.7026</v>
+        <v>0.89039999999999997</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -907,22 +922,22 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="F13" s="1">
-        <v>0.9748</v>
+        <v>0.88319999999999999</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I13" s="1">
-        <v>0.9284</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="J13" s="1">
-        <v>0.27600000000000002</v>
+        <v>0.7026</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -939,7 +954,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="F14" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -948,45 +963,48 @@
         <v>0.9284</v>
       </c>
       <c r="J14" s="1">
-        <v>0.224</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="12.75">
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.9748</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.2417</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="12.75">
+      <c r="E15" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.9284</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="13.2">
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -997,7 +1015,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="F16" s="3">
-        <v>0.87639999999999996</v>
+        <v>0.9748</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>30</v>
@@ -1006,42 +1024,42 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="J16" s="3">
-        <v>0.12920000000000001</v>
+        <v>0.2417</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="B17" t="s">
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="13.2">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.92659999999999998</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.91120000000000001</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.90559999999999996</v>
-      </c>
-      <c r="K17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1055,7 +1073,7 @@
         <v>0.92659999999999998</v>
       </c>
       <c r="F18" s="1">
-        <v>0.87639999999999996</v>
+        <v>0.91120000000000001</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -1064,45 +1082,45 @@
         <v>0.89829999999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.73099999999999998</v>
+        <v>0.90559999999999996</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1"/>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1"/>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>10</v>
@@ -1126,41 +1144,39 @@
         <v>23</v>
       </c>
       <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
         <v>37</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>5.73</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.7681</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.98909999999999998</v>
-      </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1171,7 +1187,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>5.73</v>
@@ -1180,7 +1196,7 @@
         <v>0.7681</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0.98909999999999998</v>
       </c>
       <c r="G36" t="s">
         <v>6</v>
@@ -1191,37 +1207,37 @@
         <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>6.05</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.80679999999999996</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.999</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>5.73</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" t="s">
         <v>23</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L37" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1233,7 +1249,7 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>6.05</v>
@@ -1242,9 +1258,40 @@
         <v>0.80679999999999996</v>
       </c>
       <c r="F39" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>6.05</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="F40" s="1">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>6</v>
       </c>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
   <si>
     <t>classifier</t>
   </si>
@@ -141,13 +141,22 @@
     <t>classifier parameters</t>
   </si>
   <si>
-    <t>ep 200 cn 65 bs 128 optimiser Adam</t>
-  </si>
-  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.1, clfWeight:1, xTildeWeight:0.05</t>
   </si>
   <si>
-    <t>ep 80 cn 65 bs 32 optimiser Adam</t>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:1, clfWeight:1, xTildeWeight:0.05</t>
+  </si>
+  <si>
+    <t>ep 80 cn 65 bs 128 optimiser Adam, lr 0.001</t>
+  </si>
+  <si>
+    <t>ep 80 cn 65 bs 32 optimiser Adam, lr 0.001</t>
+  </si>
+  <si>
+    <t>ep 200 cn 65 bs 128 optimiser Adam, lr 0.001</t>
+  </si>
+  <si>
+    <t>ep 80 cn 65 bs 128 optimiser Adam, lr 0.0001</t>
   </si>
 </sst>
 </file>
@@ -521,13 +530,13 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
@@ -1084,7 +1093,9 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="3">
+        <v>0.92659999999999998</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" t="s">
         <v>6</v>
@@ -1100,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1113,23 +1124,116 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="3">
+        <v>0.92659999999999998</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" t="s">
         <v>23</v>
       </c>
       <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.9002</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
         <v>37</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M24" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:12">

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="45">
   <si>
     <t>classifier</t>
   </si>
@@ -157,6 +156,18 @@
   </si>
   <si>
     <t>ep 80 cn 65 bs 128 optimiser Adam, lr 0.0001</t>
+  </si>
+  <si>
+    <t>SGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BayesianEMBATrainer(clfAcc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:0.01, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.3, clfWeight:1, xTildeWeight:0.1, , --bayesianModelNum:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -527,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1352,6 +1363,41 @@
         <v>6</v>
       </c>
     </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="G42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.1719</v>
+      </c>
+      <c r="K42" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
